--- a/medicine/Enfance/Liste_des_livres_de_la_Famille_Passiflore/Liste_des_livres_de_la_Famille_Passiflore.xlsx
+++ b/medicine/Enfance/Liste_des_livres_de_la_Famille_Passiflore/Liste_des_livres_de_la_Famille_Passiflore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceci est une liste de livres de La Famille Passiflore qui est une série de livres pour enfants. À l'exception des deux titres les plus récents d'Amélie Sarn, les livres ont été écrits par Geneviève Huriet. Loïc Jouannigot est l'illustrateur des histoires depuis les débuts en 1987. 
 En France, les livres sont publiés aux éditions Milan. Les versions anglaises des sept premiers titres ont été publiées par Gareth Stevens en 1991 et 1992. 
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
